--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marce/Desktop/Proyectos/Topicos/T12 - formulario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92718E-58B6-F44D-BDE7-C7DFBFAD14D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C913B6A-28AD-7846-B184-6947489EA908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{CDF8F542-57C4-E347-A5C9-86FC7543A262}"/>
   </bookViews>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC20A7B-CDBB-4740-A5CE-0F240D20A35E}">
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,38 +655,38 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Manuel Torrez</v>
+        <v>Marco Meulen</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Albañil</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">VLOOKUP(D4,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Instalacion de Cañerias</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(1,4)+(RANDBETWEEN(1,10)/10)</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
         <f ca="1">-RANDBETWEEN(17756997,17822945)/1000000</f>
-        <v>-17.796828999999999</v>
+        <v>-17.761291</v>
       </c>
       <c r="I4">
         <f ca="1">-RANDBETWEEN(63150150,63215877)/1000000</f>
-        <v>-63.159432000000002</v>
+        <v>-63.215173999999998</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L4" t="str">
-        <f ca="1">"INSERT INTO services VALUES"&amp;"("&amp;"'"&amp;_xlfn.TEXTJOIN("'|'",FALSE,A4:J4)&amp;"'"&amp;")"&amp;";"</f>
-        <v>INSERT INTO services VALUES('1'|'Foto'|'Manuel Torrez'|'Plomero'|'Instalacion de Cañerias'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,2'|'-17,796829'|'-63,159432'|'La Paz');</v>
+        <f ca="1">"await db.execute('''"&amp;"INSERT INTO services VALUES"&amp;"("&amp;"'"&amp;_xlfn.TEXTJOIN("'|'",FALSE,A4:J4)&amp;"'"&amp;")"&amp;";"&amp;"''');"</f>
+        <v>await db.execute('''INSERT INTO services VALUES('1'|'Foto'|'Marco Meulen'|'Albañil'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,4'|'-17,761291'|'-63,215174'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Federico Espada</v>
+        <v>Carla Paredez</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -706,30 +706,30 @@
       </c>
       <c r="E5" t="str">
         <f ca="1">VLOOKUP(D5,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Reparaciones</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G33" ca="1" si="0">RANDBETWEEN(1,4)+(RANDBETWEEN(1,10)/10)</f>
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H33" ca="1" si="1">-RANDBETWEEN(17756997,17822945)/1000000</f>
-        <v>-17.792829000000001</v>
+        <v>-17.776558999999999</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I33" ca="1" si="2">-RANDBETWEEN(63150150,63215877)/1000000</f>
-        <v>-63.169173000000001</v>
+        <v>-63.176810000000003</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L33" ca="1" si="3">"INSERT INTO services VALUES"&amp;"("&amp;"'"&amp;_xlfn.TEXTJOIN("'|'",FALSE,A5:J5)&amp;"'"&amp;")"&amp;";"</f>
-        <v>INSERT INTO services VALUES('2'|'Foto'|'Federico Espada'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4'|'-17,792829'|'-63,169173'|'La Paz');</v>
+        <f t="shared" ref="L5:L33" ca="1" si="3">"await db.execute('''"&amp;"INSERT INTO services VALUES"&amp;"("&amp;"'"&amp;_xlfn.TEXTJOIN("'|'",FALSE,A5:J5)&amp;"'"&amp;")"&amp;";"&amp;"''');"</f>
+        <v>await db.execute('''INSERT INTO services VALUES('2'|'Foto'|'Carla Paredez'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,1'|'-17,776559'|'-63,17681'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -741,38 +741,38 @@
       </c>
       <c r="C6" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Federico Carrasco</v>
+        <v>Marco Torrez</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Plomero</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">VLOOKUP(D6,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Rebocado</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.775869</v>
+        <v>-17.815926000000001</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.193927000000002</v>
+        <v>-63.210523999999999</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('3'|'Foto'|'Federico Carrasco'|'Albañil'|'Rebocado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,2'|'-17,775869'|'-63,193927'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('3'|'Foto'|'Marco Torrez'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,4'|'-17,815926'|'-63,210524'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
       </c>
       <c r="C7" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Luisa Cejas</v>
+        <v>Luisa Paredez</v>
       </c>
       <c r="D7" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -799,23 +799,23 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.806729000000001</v>
+        <v>-17.761241999999999</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.155265</v>
+        <v>-63.204929999999997</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>La Paz</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('4'|'Foto'|'Luisa Cejas'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,5'|'-17,806729'|'-63,155265'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('4'|'Foto'|'Luisa Paredez'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,7'|'-17,761242'|'-63,20493'|'La Paz');''');</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
       </c>
       <c r="C8" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Federico Cejas</v>
+        <v>Finelo Meulen</v>
       </c>
       <c r="D8" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -835,22 +835,22 @@
       </c>
       <c r="E8" t="str">
         <f ca="1">VLOOKUP(D8,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Reparaciones</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.793092999999999</v>
+        <v>-17.797075</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.196117000000001</v>
+        <v>-63.187278999999997</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('5'|'Foto'|'Federico Cejas'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,8'|'-17,793093'|'-63,196117'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('5'|'Foto'|'Finelo Meulen'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,8'|'-17,797075'|'-63,187279'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
       </c>
       <c r="C9" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Luisa Torrez</v>
+        <v>Federico Torrez</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -878,30 +878,30 @@
       </c>
       <c r="E9" t="str">
         <f ca="1">VLOOKUP(D9,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Barnizado</v>
+        <v>Diseño de Muebles</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.808520000000001</v>
+        <v>-17.793132</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.188706000000003</v>
+        <v>-63.21302</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('6'|'Foto'|'Luisa Torrez'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,3'|'-17,80852'|'-63,188706'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('6'|'Foto'|'Federico Torrez'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,6'|'-17,793132'|'-63,21302'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -913,38 +913,38 @@
       </c>
       <c r="C10" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Manuel Torrez</v>
+        <v>Luisa Espada</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Plomero</v>
       </c>
       <c r="E10" t="str">
         <f ca="1">VLOOKUP(D10,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Mantenimiento</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.810886</v>
+        <v>-17.778528999999999</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.151479000000002</v>
+        <v>-63.205981000000001</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('7'|'Foto'|'Manuel Torrez'|'Albañil'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,4'|'-17,810886'|'-63,151479'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('7'|'Foto'|'Luisa Espada'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,9'|'-17,778529'|'-63,205981'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -956,30 +956,30 @@
       </c>
       <c r="C11" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Torrez</v>
+        <v>Federico Carrasco</v>
       </c>
       <c r="D11" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Carpintero</v>
       </c>
       <c r="E11" t="str">
         <f ca="1">VLOOKUP(D11,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Instalacion de Cañerias</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.773788</v>
+        <v>-17.805392000000001</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.163724999999999</v>
+        <v>-63.203073000000003</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
@@ -987,7 +987,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('8'|'Foto'|'Finelo Torrez'|'Plomero'|'Instalacion de Cañerias'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,7'|'-17,773788'|'-63,163725'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('8'|'Foto'|'Federico Carrasco'|'Carpintero'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,2'|'-17,805392'|'-63,203073'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -999,7 +999,7 @@
       </c>
       <c r="C12" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Manuel Cejas</v>
+        <v>Manuel Paredez</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1007,30 +1007,30 @@
       </c>
       <c r="E12" t="str">
         <f ca="1">VLOOKUP(D12,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Matenimiento</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.809705999999998</v>
+        <v>-17.776582999999999</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.194772999999998</v>
+        <v>-63.174743999999997</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('9'|'Foto'|'Manuel Cejas'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,2'|'-17,809706'|'-63,194773'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('9'|'Foto'|'Manuel Paredez'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,9'|'-17,776583'|'-63,174744'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1042,38 +1042,38 @@
       </c>
       <c r="C13" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Marco Cejas</v>
+        <v>Manuel Torrez</v>
       </c>
       <c r="D13" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Albañil</v>
       </c>
       <c r="E13" t="str">
         <f ca="1">VLOOKUP(D13,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Matenimiento</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.769105</v>
+        <v>-17.806947999999998</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.182867999999999</v>
+        <v>-63.166288999999999</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('10'|'Foto'|'Marco Cejas'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,3'|'-17,769105'|'-63,182868'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('10'|'Foto'|'Manuel Torrez'|'Albañil'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,6'|'-17,806948'|'-63,166289'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1085,38 +1085,38 @@
       </c>
       <c r="C14" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Espada</v>
+        <v>Federico Espada</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Carpintero</v>
       </c>
       <c r="E14" t="str">
         <f ca="1">VLOOKUP(D14,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Reparaciones</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.809795999999999</v>
+        <v>-17.763915999999998</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.152836999999998</v>
+        <v>-63.192554000000001</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('11'|'Foto'|'Finelo Espada'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,5'|'-17,809796'|'-63,152837'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('11'|'Foto'|'Federico Espada'|'Carpintero'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,6'|'-17,763916'|'-63,192554'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C15" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Federico Espada</v>
+        <v>Carla Torrez</v>
       </c>
       <c r="D15" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1143,15 +1143,15 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.770682999999998</v>
+        <v>-17.796571</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.184432999999999</v>
+        <v>-63.170929999999998</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('12'|'Foto'|'Federico Espada'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,2'|'-17,770683'|'-63,184433'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('12'|'Foto'|'Carla Torrez'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,9'|'-17,796571'|'-63,17093'|'La Paz');''');</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C16" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Torrez</v>
+        <v>Carla Espada</v>
       </c>
       <c r="D16" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1179,30 +1179,30 @@
       </c>
       <c r="E16" t="str">
         <f ca="1">VLOOKUP(D16,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Barnizado</v>
+        <v>Diseño de Muebles</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.769138999999999</v>
+        <v>-17.820522</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.205531999999998</v>
+        <v>-63.200930999999997</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('13'|'Foto'|'Finelo Torrez'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,4'|'-17,769139'|'-63,205532'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('13'|'Foto'|'Carla Espada'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,3'|'-17,820522'|'-63,200931'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1214,30 +1214,30 @@
       </c>
       <c r="C17" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Marco Paredez</v>
+        <v>Manuel Espada</v>
       </c>
       <c r="D17" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Carpintero</v>
       </c>
       <c r="E17" t="str">
         <f ca="1">VLOOKUP(D17,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Matenimiento</v>
+        <v>Diseño de Muebles</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.789202</v>
+        <v>-17.758979</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.181927999999999</v>
+        <v>-63.194051999999999</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('14'|'Foto'|'Marco Paredez'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,3'|'-17,789202'|'-63,181928'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('14'|'Foto'|'Manuel Espada'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,5'|'-17,758979'|'-63,194052'|'La Paz');''');</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1257,38 +1257,38 @@
       </c>
       <c r="C18" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Carla Carrasco</v>
+        <v>Finelo Carrasco</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Carpintero</v>
+        <v>Plomero</v>
       </c>
       <c r="E18" t="str">
         <f ca="1">VLOOKUP(D18,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Diseño de Muebles</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.786425999999999</v>
+        <v>-17.797129000000002</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.207017</v>
+        <v>-63.202796999999997</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('15'|'Foto'|'Carla Carrasco'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2'|'-17,786426'|'-63,207017'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('15'|'Foto'|'Finelo Carrasco'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,8'|'-17,797129'|'-63,202797'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1300,38 +1300,38 @@
       </c>
       <c r="C19" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Juan Espada</v>
+        <v>Carla Meulen</v>
       </c>
       <c r="D19" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Albañil</v>
       </c>
       <c r="E19" t="str">
         <f ca="1">VLOOKUP(D19,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Reparaciones</v>
+        <v>Pintado</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.789270999999999</v>
+        <v>-17.773955000000001</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.197315000000003</v>
+        <v>-63.156641</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('16'|'Foto'|'Juan Espada'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,5'|'-17,789271'|'-63,197315'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('16'|'Foto'|'Carla Meulen'|'Albañil'|'Pintado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,5'|'-17,773955'|'-63,156641'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1343,38 +1343,38 @@
       </c>
       <c r="C20" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Paredez</v>
+        <v>Finelo Carrasco</v>
       </c>
       <c r="D20" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Carpintero</v>
+        <v>Plomero</v>
       </c>
       <c r="E20" t="str">
         <f ca="1">VLOOKUP(D20,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Barnizado</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.778925999999998</v>
+        <v>-17.809422999999999</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.168658000000001</v>
+        <v>-63.191085999999999</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('17'|'Foto'|'Finelo Paredez'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,6'|'-17,778926'|'-63,168658'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('17'|'Foto'|'Finelo Carrasco'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4'|'-17,809423'|'-63,191086'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1386,38 +1386,38 @@
       </c>
       <c r="C21" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Meulen</v>
+        <v>Manuel Miranda</v>
       </c>
       <c r="D21" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Plomero</v>
       </c>
       <c r="E21" t="str">
         <f ca="1">VLOOKUP(D21,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Mantenimiento</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.775679</v>
+        <v>-17.786389</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.192098999999999</v>
+        <v>-63.162197999999997</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>La Paz</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('18'|'Foto'|'Finelo Meulen'|'Albañil'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,4'|'-17,775679'|'-63,192099'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('18'|'Foto'|'Manuel Miranda'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,6'|'-17,786389'|'-63,162198'|'La Paz');''');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C22" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Juan Meulen</v>
+        <v>Marco Meulen</v>
       </c>
       <c r="D22" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1437,30 +1437,30 @@
       </c>
       <c r="E22" t="str">
         <f ca="1">VLOOKUP(D22,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Barnizado</v>
+        <v>Diseño de Muebles</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.797087999999999</v>
+        <v>-17.765364000000002</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.213158</v>
+        <v>-63.201963999999997</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('19'|'Foto'|'Juan Meulen'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,2'|'-17,797088'|'-63,213158'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('19'|'Foto'|'Marco Meulen'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,1'|'-17,765364'|'-63,201964'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1472,15 +1472,15 @@
       </c>
       <c r="C23" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Juan Cejas</v>
+        <v>Finelo Paredez</v>
       </c>
       <c r="D23" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Carpintero</v>
       </c>
       <c r="E23" t="str">
         <f ca="1">VLOOKUP(D23,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Rebocado</v>
+        <v>Barnizado</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -1491,19 +1491,19 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.795788999999999</v>
+        <v>-17.804136</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.166898000000003</v>
+        <v>-63.166052000000001</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>La Paz</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('20'|'Foto'|'Juan Cejas'|'Albañil'|'Rebocado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2'|'-17,795789'|'-63,166898'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('20'|'Foto'|'Finelo Paredez'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2'|'-17,804136'|'-63,166052'|'La Paz');''');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,38 +1515,38 @@
       </c>
       <c r="C24" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Espada</v>
+        <v>Marco Carrasco</v>
       </c>
       <c r="D24" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Carpintero</v>
+        <v>Plomero</v>
       </c>
       <c r="E24" t="str">
         <f ca="1">VLOOKUP(D24,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Diseño de Muebles</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.791634999999999</v>
+        <v>-17.768201999999999</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.172274999999999</v>
+        <v>-63.203234000000002</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('21'|'Foto'|'Finelo Espada'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4'|'-17,791635'|'-63,172275'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('21'|'Foto'|'Marco Carrasco'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,7'|'-17,768202'|'-63,203234'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C25" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Carla Paredez</v>
+        <v>Juan Paredez</v>
       </c>
       <c r="D25" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1566,30 +1566,30 @@
       </c>
       <c r="E25" t="str">
         <f ca="1">VLOOKUP(D25,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Mantenimiento</v>
+        <v>Barnizado</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.763812999999999</v>
+        <v>-17.770174000000001</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.164065000000001</v>
+        <v>-63.199857000000002</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>La Paz</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('22'|'Foto'|'Carla Paredez'|'Carpintero'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,1'|'-17,763813'|'-63,164065'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('22'|'Foto'|'Juan Paredez'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,5'|'-17,770174'|'-63,199857'|'La Paz');''');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C26" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Luisa Meulen</v>
+        <v>Carla Meulen</v>
       </c>
       <c r="D26" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1609,30 +1609,30 @@
       </c>
       <c r="E26" t="str">
         <f ca="1">VLOOKUP(D26,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Mantenimiento</v>
+        <v>Pintado</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.792725000000001</v>
+        <v>-17.769915999999998</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.207006999999997</v>
+        <v>-63.170088</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>La Paz</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('23'|'Foto'|'Luisa Meulen'|'Albañil'|'Mantenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4'|'-17,792725'|'-63,207007'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('23'|'Foto'|'Carla Meulen'|'Albañil'|'Pintado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,5'|'-17,769916'|'-63,170088'|'La Paz');''');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1644,38 +1644,38 @@
       </c>
       <c r="C27" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Federico Torrez</v>
+        <v>Luisa Carrasco</v>
       </c>
       <c r="D27" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Plomero</v>
       </c>
       <c r="E27" t="str">
         <f ca="1">VLOOKUP(D27,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Rebocado</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.819212</v>
+        <v>-17.760234000000001</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.198407000000003</v>
+        <v>-63.204686000000002</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('24'|'Foto'|'Federico Torrez'|'Albañil'|'Rebocado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,1'|'-17,819212'|'-63,198407'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('24'|'Foto'|'Luisa Carrasco'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,3'|'-17,760234'|'-63,204686'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1687,38 +1687,38 @@
       </c>
       <c r="C28" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Juan Miranda</v>
+        <v>Manuel Miranda</v>
       </c>
       <c r="D28" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Carpintero</v>
       </c>
       <c r="E28" t="str">
         <f ca="1">VLOOKUP(D28,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Rebocado</v>
+        <v>Diseño de Muebles</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.811866999999999</v>
+        <v>-17.804064</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.160572999999999</v>
+        <v>-63.201751999999999</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>La Paz</v>
+        <v>Cochabamba</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('25'|'Foto'|'Juan Miranda'|'Albañil'|'Rebocado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,8'|'-17,811867'|'-63,160573'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('25'|'Foto'|'Manuel Miranda'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,4'|'-17,804064'|'-63,201752'|'Cochabamba');''');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1730,38 +1730,38 @@
       </c>
       <c r="C29" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Luisa Torrez</v>
+        <v>Federico Carrasco</v>
       </c>
       <c r="D29" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Albañil</v>
+        <v>Carpintero</v>
       </c>
       <c r="E29" t="str">
         <f ca="1">VLOOKUP(D29,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Pintado</v>
+        <v>Diseño de Muebles</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.758979</v>
+        <v>-17.775893</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.152329999999999</v>
+        <v>-63.196738000000003</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>Santa Cruz</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('26'|'Foto'|'Luisa Torrez'|'Albañil'|'Pintado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,2'|'-17,758979'|'-63,15233'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('26'|'Foto'|'Federico Carrasco'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,7'|'-17,775893'|'-63,196738'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C30" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Finelo Cejas</v>
+        <v>Juan Meulen</v>
       </c>
       <c r="D30" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1781,30 +1781,30 @@
       </c>
       <c r="E30" t="str">
         <f ca="1">VLOOKUP(D30,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Diseño de Muebles</v>
+        <v>Barnizado</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.803328</v>
+        <v>-17.810873000000001</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.184652</v>
+        <v>-63.174928000000001</v>
       </c>
       <c r="J30" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Cochabamba</v>
+        <v>La Paz</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('27'|'Foto'|'Finelo Cejas'|'Carpintero'|'Diseño de Muebles'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4,4'|'-17,803328'|'-63,184652'|'Cochabamba');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('27'|'Foto'|'Juan Meulen'|'Carpintero'|'Barnizado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,5'|'-17,810873'|'-63,174928'|'La Paz');''');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C31" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Manuel Paredez</v>
+        <v>Manuel Espada</v>
       </c>
       <c r="D31" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1824,30 +1824,30 @@
       </c>
       <c r="E31" t="str">
         <f ca="1">VLOOKUP(D31,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Reparaciones</v>
+        <v>Matenimiento</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.804966</v>
+        <v>-17.763498999999999</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.184161000000003</v>
+        <v>-63.199750000000002</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Santa Cruz</v>
+        <v>La Paz</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('28'|'Foto'|'Manuel Paredez'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,4'|'-17,804966'|'-63,184161'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('28'|'Foto'|'Manuel Espada'|'Plomero'|'Matenimiento'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'1,8'|'-17,763499'|'-63,19975'|'La Paz');''');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="C32" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Luisa Espada</v>
+        <v>Manuel Paredez</v>
       </c>
       <c r="D32" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
@@ -1874,15 +1874,15 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.796189999999999</v>
+        <v>-17.811554999999998</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.185533</v>
+        <v>-63.174196000000002</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('29'|'Foto'|'Luisa Espada'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,5'|'-17,79619'|'-63,185533'|'Santa Cruz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('29'|'Foto'|'Manuel Paredez'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'3,4'|'-17,811555'|'-63,174196'|'Santa Cruz');''');</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1902,30 +1902,30 @@
       </c>
       <c r="C33" t="str">
         <f ca="1">VLOOKUP("nombres",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)&amp;" "&amp;VLOOKUP("apellidos",Hoja2!$H$8:$O$9,RANDBETWEEN(2,8),FALSE)</f>
-        <v>Carla Meulen</v>
+        <v>Juan Carrasco</v>
       </c>
       <c r="D33" t="str">
         <f ca="1">VLOOKUP("categoria",Hoja2!$A$3:$D$3,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Plomero</v>
+        <v>Albañil</v>
       </c>
       <c r="E33" t="str">
         <f ca="1">VLOOKUP(D33,Hoja2!$H$3:$K$5,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Reparaciones</v>
+        <v>Pintado</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.807428999999999</v>
+        <v>-17.776596000000001</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="2"/>
-        <v>-63.162314000000002</v>
+        <v>-63.210234</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">VLOOKUP("region",Hoja2!$A$2:$D$2,RANDBETWEEN(2,4),FALSE)</f>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO services VALUES('30'|'Foto'|'Carla Meulen'|'Plomero'|'Reparaciones'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'4'|'-17,807429'|'-63,162314'|'La Paz');</v>
+        <v>await db.execute('''INSERT INTO services VALUES('30'|'Foto'|'Juan Carrasco'|'Albañil'|'Pintado'|'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'|'2,9'|'-17,776596'|'-63,210234'|'La Paz');''');</v>
       </c>
     </row>
   </sheetData>
